--- a/data/SecurityOverview.xlsx
+++ b/data/SecurityOverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12400" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12400" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="getYarnMetricsInfo" sheetId="1" r:id="rId1"/>
@@ -2147,8 +2147,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
@@ -2159,8 +2159,9 @@
     <col min="6" max="6" width="33.4545454545455" customWidth="1"/>
     <col min="8" max="8" width="38.8181818181818" customWidth="1"/>
     <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="11" max="11" width="18.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="68.2727272727273" customWidth="1"/>
+    <col min="11" max="12" width="18.5454545454545" customWidth="1"/>
+    <col min="13" max="13" width="62.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2511,7 +2512,7 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>

--- a/data/SecurityOverview.xlsx
+++ b/data/SecurityOverview.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12400" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12400" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="getYarnMetricsInfo" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <t>res</t>
   </si>
   <si>
-    <t>getYarnMetricsInfo</t>
+    <t>集群</t>
   </si>
   <si>
     <t>获取集群资源</t>
@@ -103,7 +103,7 @@
     <t>pass</t>
   </si>
   <si>
-    <t>sensorInfo</t>
+    <t>sensor</t>
   </si>
   <si>
     <t>获取sensor资源</t>
@@ -269,7 +269,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +299,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -765,137 +771,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -927,6 +933,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1241,7 +1250,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1306,7 +1315,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
@@ -1347,7 +1356,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K$1:K$1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -1445,7 +1454,7 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
@@ -2147,7 +2156,7 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2512,8 +2521,8 @@
   <sheetPr/>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>

--- a/data/SecurityOverview.xlsx
+++ b/data/SecurityOverview.xlsx
@@ -35,11 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="76">
   <si>
     <t>case_id</t>
   </si>
   <si>
+    <t>module</t>
+  </si>
+  <si>
     <t>interface</t>
   </si>
   <si>
@@ -80,6 +83,9 @@
   </si>
   <si>
     <t>res</t>
+  </si>
+  <si>
+    <t>安全总览</t>
   </si>
   <si>
     <t>集群</t>
@@ -1247,24 +1253,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="15.9090909090909" style="10" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" style="10" customWidth="1"/>
-    <col min="6" max="6" width="34.8181818181818" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.2727272727273" style="10" customWidth="1"/>
-    <col min="8" max="8" width="10.5454545454545" style="10" customWidth="1"/>
-    <col min="9" max="9" width="43.2727272727273" style="10" customWidth="1"/>
-    <col min="10" max="12" width="11.8181818181818" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.9090909090909" style="10" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" style="10" customWidth="1"/>
+    <col min="7" max="7" width="34.8181818181818" style="10" customWidth="1"/>
+    <col min="8" max="8" width="17.2727272727273" style="10" customWidth="1"/>
+    <col min="9" max="9" width="10.5454545454545" style="10" customWidth="1"/>
+    <col min="10" max="10" width="43.2727272727273" style="10" customWidth="1"/>
+    <col min="11" max="13" width="11.8181818181818" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1310,37 +1316,43 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2"/>
-      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2"/>
-      <c r="O2" t="s">
+      <c r="H2" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2"/>
+      <c r="P2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1353,23 +1365,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
-    <col min="9" max="9" width="39.9090909090909" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="10" max="10" width="39.9090909090909" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1415,30 +1427,36 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
     </row>
@@ -1452,25 +1470,25 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="8" max="8" width="38.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="10" max="10" width="11.8181818181818" customWidth="1"/>
-    <col min="11" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="72.7272727272727" customWidth="1"/>
+    <col min="3" max="3" width="10.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="9" max="9" width="38.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="11" max="11" width="11.8181818181818" customWidth="1"/>
+    <col min="12" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="72.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1516,119 +1534,131 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" ht="168" spans="1:13">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="168" spans="1:14">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" ht="168" spans="1:13">
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" ht="168" spans="1:14">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" ht="168" spans="1:13">
+      <c r="N3" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="168" spans="1:14">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>37</v>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1641,25 +1671,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="3" max="3" width="24.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="42.1818181818182" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="11" max="11" width="17.3636363636364" customWidth="1"/>
-    <col min="12" max="12" width="10.6363636363636" customWidth="1"/>
-    <col min="13" max="13" width="9.54545454545454" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="42.1818181818182" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="12" max="12" width="17.3636363636364" customWidth="1"/>
+    <col min="13" max="13" width="10.6363636363636" customWidth="1"/>
+    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1705,110 +1735,122 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1820,22 +1862,22 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="10.6363636363636" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="8" max="8" width="42.2727272727273" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="3" max="3" width="10.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="9" max="9" width="42.2727272727273" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1881,100 +1923,112 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
+        <v>47</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
+      <c r="G3" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1987,22 +2041,22 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="8" max="8" width="38.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="26.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
+    <col min="9" max="9" width="38.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2048,100 +2102,112 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>50</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
+      <c r="G2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>52</v>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
+      <c r="G3" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4">
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -2154,26 +2220,26 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="8.54545454545454" customWidth="1"/>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="26.3636363636364" customWidth="1"/>
-    <col min="6" max="6" width="33.4545454545455" customWidth="1"/>
-    <col min="8" max="8" width="38.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="11" max="12" width="18.5454545454545" customWidth="1"/>
-    <col min="13" max="13" width="62.5454545454545" customWidth="1"/>
-    <col min="14" max="14" width="9.54545454545454" customWidth="1"/>
+    <col min="1" max="2" width="8.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="26.3636363636364" customWidth="1"/>
+    <col min="7" max="7" width="33.4545454545455" customWidth="1"/>
+    <col min="9" max="9" width="38.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="12" max="13" width="18.5454545454545" customWidth="1"/>
+    <col min="14" max="14" width="62.5454545454545" customWidth="1"/>
+    <col min="15" max="15" width="9.54545454545454" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2219,128 +2285,140 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>30</v>
+      <c r="G2" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="N2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>61</v>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="H4" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
+        <v>33</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>21</v>
+        <v>59</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2352,22 +2430,22 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="15.1818181818182" customWidth="1"/>
-    <col min="3" max="3" width="29.8181818181818" customWidth="1"/>
-    <col min="6" max="6" width="46.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="38.8181818181818" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
+    <col min="3" max="3" width="15.1818181818182" customWidth="1"/>
+    <col min="4" max="4" width="29.8181818181818" customWidth="1"/>
+    <col min="7" max="7" width="46.6363636363636" customWidth="1"/>
+    <col min="9" max="9" width="38.8181818181818" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2413,100 +2491,112 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="G3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
+      <c r="H4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
     </row>
@@ -2519,23 +2609,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="3"/>
   <cols>
-    <col min="2" max="2" width="11.8181818181818" customWidth="1"/>
-    <col min="3" max="3" width="24.1818181818182" customWidth="1"/>
-    <col min="6" max="6" width="33.7272727272727" customWidth="1"/>
-    <col min="8" max="8" width="55.6363636363636" customWidth="1"/>
-    <col min="9" max="9" width="41" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="3" max="3" width="11.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="24.1818181818182" customWidth="1"/>
+    <col min="7" max="7" width="33.7272727272727" customWidth="1"/>
+    <col min="9" max="9" width="55.6363636363636" customWidth="1"/>
+    <col min="10" max="10" width="41" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2581,105 +2671,117 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" t="s">
-        <v>69</v>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="5"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="H3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5"/>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
